--- a/data/compare_LayerPercentage_velocity.xlsx
+++ b/data/compare_LayerPercentage_velocity.xlsx
@@ -473,6 +473,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -482,15 +497,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,12 +505,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,28 +811,28 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="K6" s="18">
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="K6" s="15">
         <v>100</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="16">
         <v>200</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="17">
         <v>300</v>
       </c>
     </row>
@@ -840,16 +840,16 @@
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="18">
+      <c r="D7" s="15">
         <v>100</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="16">
         <v>200</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="17">
         <v>300</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="20" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="13">
@@ -870,7 +870,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="13">
@@ -886,7 +886,7 @@
       <c r="F8" s="6">
         <v>23974</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="5">
         <v>2</v>
       </c>
@@ -900,12 +900,12 @@
         <v>5.0318000000000005</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M11" si="3" xml:space="preserve"> F9 / 500000 *100</f>
+        <f t="shared" ref="M8:M10" si="3" xml:space="preserve"> F9 / 500000 *100</f>
         <v>5.2783999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -919,7 +919,7 @@
       <c r="F9" s="2">
         <v>26392</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="5">
         <v>3</v>
       </c>
@@ -938,7 +938,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="F10" s="2">
         <v>30653</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="5">
         <v>4</v>
       </c>
@@ -971,7 +971,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="5">
         <v>4</v>
       </c>
@@ -985,7 +985,7 @@
       <c r="F11" s="2">
         <v>32134</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="14">
         <v>5</v>
       </c>
@@ -1004,7 +1004,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="14">
         <v>5</v>
       </c>
@@ -1021,18 +1021,18 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="19">
         <f>SUM(D8:D12)</f>
         <v>142124</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="19">
         <f t="shared" ref="E14:F14" si="4">SUM(E8:E12)</f>
         <v>144739</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="19">
         <f t="shared" si="4"/>
         <v>145045</v>
       </c>
@@ -1048,27 +1048,27 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="18">
+      <c r="D21" s="15">
         <v>100</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="16">
         <v>200</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="17">
         <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="13">
@@ -1076,92 +1076,92 @@
       </c>
       <c r="C22" s="11"/>
       <c r="D22">
-        <f xml:space="preserve"> D8 / D$14</f>
-        <v>0.141629844361262</v>
+        <f xml:space="preserve"> D8 / D$14 * 100</f>
+        <v>14.1629844361262</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:F22" si="5" xml:space="preserve"> E8 / E$14</f>
-        <v>0.15574240529504832</v>
+        <f t="shared" ref="E22:F22" si="5" xml:space="preserve"> E8 / E$14 * 100</f>
+        <v>15.574240529504833</v>
       </c>
       <c r="F22">
         <f t="shared" si="5"/>
-        <v>0.16528663518218484</v>
+        <v>16.528663518218483</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="16"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="5">
         <v>2</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23">
-        <f t="shared" ref="D23:F26" si="6" xml:space="preserve"> D9 / D$14</f>
-        <v>0.15884720385015902</v>
+        <f t="shared" ref="D23:F26" si="6" xml:space="preserve"> D9 / D$14 * 100</f>
+        <v>15.884720385015902</v>
       </c>
       <c r="E23">
         <f t="shared" si="6"/>
-        <v>0.17382322663553015</v>
+        <v>17.382322663553015</v>
       </c>
       <c r="F23">
         <f t="shared" si="6"/>
-        <v>0.18195732358923092</v>
+        <v>18.195732358923092</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="5">
         <v>3</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24">
         <f t="shared" si="6"/>
-        <v>0.20239368438828065</v>
+        <v>20.239368438828066</v>
       </c>
       <c r="E24">
         <f t="shared" si="6"/>
-        <v>0.20943215028430484</v>
+        <v>20.943215028430483</v>
       </c>
       <c r="F24">
         <f t="shared" si="6"/>
-        <v>0.21133441345789239</v>
+        <v>21.13344134578924</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="5">
         <v>4</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25">
         <f t="shared" si="6"/>
-        <v>0.23364808195660128</v>
+        <v>23.364808195660128</v>
       </c>
       <c r="E25">
         <f t="shared" si="6"/>
-        <v>0.22948203317695992</v>
+        <v>22.948203317695992</v>
       </c>
       <c r="F25">
         <f t="shared" si="6"/>
-        <v>0.22154503774690612</v>
+        <v>22.15450377469061</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="14">
         <v>5</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26">
         <f t="shared" si="6"/>
-        <v>0.26348118544369703</v>
+        <v>26.348118544369704</v>
       </c>
       <c r="E26">
         <f t="shared" si="6"/>
-        <v>0.23152018460815676</v>
+        <v>23.152018460815675</v>
       </c>
       <c r="F26">
         <f t="shared" si="6"/>
-        <v>0.21987659002378573</v>
+        <v>21.987659002378575</v>
       </c>
     </row>
   </sheetData>

--- a/data/compare_LayerPercentage_velocity.xlsx
+++ b/data/compare_LayerPercentage_velocity.xlsx
@@ -458,12 +458,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -505,6 +499,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,7 +789,7 @@
   <dimension ref="A4:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:F26"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -811,28 +811,28 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-      <c r="K6" s="15">
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="K6" s="13">
         <v>100</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="14">
         <v>200</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="15">
         <v>300</v>
       </c>
     </row>
@@ -840,105 +840,105 @@
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>100</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>200</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <v>300</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="13">
-        <v>1</v>
-      </c>
-      <c r="J7" s="11"/>
+      <c r="I7" s="11">
+        <v>5</v>
+      </c>
+      <c r="J7" s="24"/>
       <c r="K7">
         <f xml:space="preserve"> D8 / 500000 *100</f>
-        <v>4.0258000000000003</v>
+        <v>7.4893999999999998</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:M7" si="0" xml:space="preserve"> E8 / 500000 *100</f>
-        <v>4.5084</v>
+        <f xml:space="preserve"> E8 / 500000 *100</f>
+        <v>6.702</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
-        <v>4.7947999999999995</v>
+        <f xml:space="preserve"> F8 / 500000 *100</f>
+        <v>6.3783999999999992</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="13">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12">
-        <v>20129</v>
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="10">
+        <v>37447</v>
       </c>
       <c r="E8" s="6">
-        <v>22542</v>
+        <v>33510</v>
       </c>
       <c r="F8" s="6">
-        <v>23974</v>
-      </c>
-      <c r="H8" s="21"/>
+        <v>31892</v>
+      </c>
+      <c r="H8" s="19"/>
       <c r="I8" s="5">
-        <v>2</v>
-      </c>
-      <c r="J8" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="9"/>
       <c r="K8">
-        <f t="shared" ref="K8:K11" si="1" xml:space="preserve"> D9 / 500000 *100</f>
-        <v>4.5152000000000001</v>
+        <f xml:space="preserve"> D9 / 500000 *100</f>
+        <v>6.6414</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:L11" si="2" xml:space="preserve"> E9 / 500000 *100</f>
-        <v>5.0318000000000005</v>
+        <f xml:space="preserve"> E9 / 500000 *100</f>
+        <v>6.6430000000000007</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8:M10" si="3" xml:space="preserve"> F9 / 500000 *100</f>
-        <v>5.2783999999999995</v>
+        <f xml:space="preserve"> F9 / 500000 *100</f>
+        <v>6.426800000000001</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="5">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="C9" s="9"/>
       <c r="D9" s="5">
-        <v>22576</v>
+        <v>33207</v>
       </c>
       <c r="E9" s="2">
-        <v>25159</v>
+        <v>33215</v>
       </c>
       <c r="F9" s="2">
-        <v>26392</v>
-      </c>
-      <c r="H9" s="21"/>
+        <v>32134</v>
+      </c>
+      <c r="H9" s="19"/>
       <c r="I9" s="5">
         <v>3</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> D10 / 500000 *100</f>
         <v>5.7530000000000001</v>
       </c>
       <c r="L9">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> E10 / 500000 *100</f>
         <v>6.0625999999999998</v>
       </c>
       <c r="M9">
-        <f t="shared" si="3"/>
+        <f xml:space="preserve"> F10 / 500000 *100</f>
         <v>6.1306000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -952,88 +952,88 @@
       <c r="F10" s="2">
         <v>30653</v>
       </c>
-      <c r="H10" s="21"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="5">
-        <v>4</v>
-      </c>
-      <c r="J10" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="J10" s="7"/>
       <c r="K10">
-        <f t="shared" si="1"/>
-        <v>6.6414</v>
+        <f xml:space="preserve"> D11 / 500000 *100</f>
+        <v>4.5152000000000001</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
-        <v>6.6430000000000007</v>
+        <f xml:space="preserve"> E11 / 500000 *100</f>
+        <v>5.0318000000000005</v>
       </c>
       <c r="M10">
-        <f t="shared" si="3"/>
-        <v>6.426800000000001</v>
+        <f xml:space="preserve"> F11 / 500000 *100</f>
+        <v>5.2783999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="5">
-        <v>4</v>
-      </c>
-      <c r="C11" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C11" s="7"/>
       <c r="D11" s="5">
-        <v>33207</v>
+        <v>22576</v>
       </c>
       <c r="E11" s="2">
-        <v>33215</v>
+        <v>25159</v>
       </c>
       <c r="F11" s="2">
-        <v>32134</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="14">
-        <v>5</v>
-      </c>
-      <c r="J11" s="10"/>
+        <v>26392</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="12">
+        <v>1</v>
+      </c>
+      <c r="J11" s="25"/>
       <c r="K11">
-        <f t="shared" si="1"/>
-        <v>7.4893999999999998</v>
+        <f xml:space="preserve"> D12 / 500000 *100</f>
+        <v>4.0258000000000003</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
-        <v>6.702</v>
+        <f xml:space="preserve"> E12 / 500000 *100</f>
+        <v>4.5084</v>
       </c>
       <c r="M11">
         <f xml:space="preserve"> F12 / 500000 *100</f>
-        <v>6.3783999999999992</v>
+        <v>4.7947999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="14">
-        <v>5</v>
-      </c>
-      <c r="C12" s="10"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="25"/>
       <c r="D12" s="5">
-        <v>37447</v>
+        <v>20129</v>
       </c>
       <c r="E12" s="2">
-        <v>33510</v>
+        <v>22542</v>
       </c>
       <c r="F12" s="2">
-        <v>31892</v>
+        <v>23974</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="17">
         <f>SUM(D8:D12)</f>
         <v>142124</v>
       </c>
-      <c r="E14" s="19">
-        <f t="shared" ref="E14:F14" si="4">SUM(E8:E12)</f>
+      <c r="E14" s="17">
+        <f t="shared" ref="E14:F14" si="0">SUM(E8:E12)</f>
         <v>144739</v>
       </c>
-      <c r="F14" s="19">
-        <f t="shared" si="4"/>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
         <v>145045</v>
       </c>
     </row>
@@ -1048,123 +1048,126 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <v>100</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="14">
         <v>200</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="15">
         <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="13">
-        <v>1</v>
-      </c>
-      <c r="C22" s="11"/>
+      <c r="B22" s="11">
+        <v>5</v>
+      </c>
+      <c r="C22" s="24"/>
       <c r="D22">
         <f xml:space="preserve"> D8 / D$14 * 100</f>
-        <v>14.1629844361262</v>
+        <v>26.348118544369704</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:F22" si="5" xml:space="preserve"> E8 / E$14 * 100</f>
-        <v>15.574240529504833</v>
+        <f xml:space="preserve"> E8 / E$14 * 100</f>
+        <v>23.152018460815675</v>
       </c>
       <c r="F22">
-        <f t="shared" si="5"/>
-        <v>16.528663518218483</v>
+        <f xml:space="preserve"> F8 / F$14 * 100</f>
+        <v>21.987659002378575</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="5">
-        <v>2</v>
-      </c>
-      <c r="C23" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="C23" s="9"/>
       <c r="D23">
-        <f t="shared" ref="D23:F26" si="6" xml:space="preserve"> D9 / D$14 * 100</f>
-        <v>15.884720385015902</v>
+        <f xml:space="preserve"> D9 / D$14 * 100</f>
+        <v>23.364808195660128</v>
       </c>
       <c r="E23">
-        <f t="shared" si="6"/>
-        <v>17.382322663553015</v>
+        <f xml:space="preserve"> E9 / E$14 * 100</f>
+        <v>22.948203317695992</v>
       </c>
       <c r="F23">
-        <f t="shared" si="6"/>
-        <v>18.195732358923092</v>
+        <f xml:space="preserve"> F9 / F$14 * 100</f>
+        <v>22.15450377469061</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="5">
         <v>3</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24">
-        <f t="shared" si="6"/>
+        <f xml:space="preserve"> D10 / D$14 * 100</f>
         <v>20.239368438828066</v>
       </c>
       <c r="E24">
-        <f t="shared" si="6"/>
+        <f xml:space="preserve"> E10 / E$14 * 100</f>
         <v>20.943215028430483</v>
       </c>
       <c r="F24">
-        <f t="shared" si="6"/>
+        <f xml:space="preserve"> F10 / F$14 * 100</f>
         <v>21.13344134578924</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="5">
-        <v>4</v>
-      </c>
-      <c r="C25" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C25" s="7"/>
       <c r="D25">
-        <f t="shared" si="6"/>
-        <v>23.364808195660128</v>
+        <f xml:space="preserve"> D11 / D$14 * 100</f>
+        <v>15.884720385015902</v>
       </c>
       <c r="E25">
-        <f t="shared" si="6"/>
-        <v>22.948203317695992</v>
+        <f xml:space="preserve"> E11 / E$14 * 100</f>
+        <v>17.382322663553015</v>
       </c>
       <c r="F25">
-        <f t="shared" si="6"/>
-        <v>22.15450377469061</v>
+        <f xml:space="preserve"> F11 / F$14 * 100</f>
+        <v>18.195732358923092</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="14">
-        <v>5</v>
-      </c>
-      <c r="C26" s="10"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="12">
+        <v>1</v>
+      </c>
+      <c r="C26" s="25"/>
       <c r="D26">
-        <f t="shared" si="6"/>
-        <v>26.348118544369704</v>
+        <f xml:space="preserve"> D12 / D$14 * 100</f>
+        <v>14.1629844361262</v>
       </c>
       <c r="E26">
-        <f t="shared" si="6"/>
-        <v>23.152018460815675</v>
+        <f xml:space="preserve"> E12 / E$14 * 100</f>
+        <v>15.574240529504833</v>
       </c>
       <c r="F26">
-        <f t="shared" si="6"/>
-        <v>21.987659002378575</v>
+        <f xml:space="preserve"> F12 / F$14 * 100</f>
+        <v>16.528663518218483</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="I7:M11">
+    <sortCondition descending="1" ref="I7"/>
+  </sortState>
   <mergeCells count="6">
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="D20:F20"/>

--- a/data/compare_LayerPercentage_velocity.xlsx
+++ b/data/compare_LayerPercentage_velocity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>層</t>
     <rPh sb="0" eb="1">
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>Suction velocity [mm/s]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100[mm/s]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200[mm/s]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>300[mm/s]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -427,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,6 +494,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,10 +518,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,6 +539,1105 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>層別粒子数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$19:$M$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100[mm/s]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200[mm/s]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300[mm/s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$21:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$19:$M$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100[mm/s]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200[mm/s]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300[mm/s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$22:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>22576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$19:$M$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100[mm/s]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200[mm/s]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300[mm/s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$23:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28765</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30313</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30653</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$19:$M$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100[mm/s]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200[mm/s]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300[mm/s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$24:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>33207</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$19:$M$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100[mm/s]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200[mm/s]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300[mm/s]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$25:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>37447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33510</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+        <c:axId val="415130400"/>
+        <c:axId val="415129280"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="415130400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415129280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="415129280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415130400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -788,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -811,21 +1928,21 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
       <c r="K6" s="13">
         <v>100</v>
       </c>
@@ -849,34 +1966,34 @@
       <c r="F7" s="15">
         <v>300</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="20" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="11">
         <v>5</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="18"/>
       <c r="K7">
-        <f xml:space="preserve"> D8 / 500000 *100</f>
+        <f t="shared" ref="K7:M11" si="0" xml:space="preserve"> D8 / 500000 *100</f>
         <v>7.4893999999999998</v>
       </c>
       <c r="L7">
-        <f xml:space="preserve"> E8 / 500000 *100</f>
+        <f t="shared" si="0"/>
         <v>6.702</v>
       </c>
       <c r="M7">
-        <f xml:space="preserve"> F8 / 500000 *100</f>
+        <f t="shared" si="0"/>
         <v>6.3783999999999992</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="11">
         <v>5</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="10">
         <v>37447</v>
       </c>
@@ -886,26 +2003,26 @@
       <c r="F8" s="6">
         <v>31892</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="5">
         <v>4</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8">
-        <f xml:space="preserve"> D9 / 500000 *100</f>
+        <f t="shared" si="0"/>
         <v>6.6414</v>
       </c>
       <c r="L8">
-        <f xml:space="preserve"> E9 / 500000 *100</f>
+        <f t="shared" si="0"/>
         <v>6.6430000000000007</v>
       </c>
       <c r="M8">
-        <f xml:space="preserve"> F9 / 500000 *100</f>
+        <f t="shared" si="0"/>
         <v>6.426800000000001</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -919,26 +2036,26 @@
       <c r="F9" s="2">
         <v>32134</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="5">
         <v>3</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9">
-        <f xml:space="preserve"> D10 / 500000 *100</f>
+        <f t="shared" si="0"/>
         <v>5.7530000000000001</v>
       </c>
       <c r="L9">
-        <f xml:space="preserve"> E10 / 500000 *100</f>
+        <f t="shared" si="0"/>
         <v>6.0625999999999998</v>
       </c>
       <c r="M9">
-        <f xml:space="preserve"> F10 / 500000 *100</f>
+        <f t="shared" si="0"/>
         <v>6.1306000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -952,26 +2069,26 @@
       <c r="F10" s="2">
         <v>30653</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="5">
         <v>2</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10">
-        <f xml:space="preserve"> D11 / 500000 *100</f>
+        <f t="shared" si="0"/>
         <v>4.5152000000000001</v>
       </c>
       <c r="L10">
-        <f xml:space="preserve"> E11 / 500000 *100</f>
+        <f t="shared" si="0"/>
         <v>5.0318000000000005</v>
       </c>
       <c r="M10">
-        <f xml:space="preserve"> F11 / 500000 *100</f>
+        <f t="shared" si="0"/>
         <v>5.2783999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="5">
         <v>2</v>
       </c>
@@ -985,30 +2102,30 @@
       <c r="F11" s="2">
         <v>26392</v>
       </c>
-      <c r="H11" s="20"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="12">
         <v>1</v>
       </c>
-      <c r="J11" s="25"/>
+      <c r="J11" s="19"/>
       <c r="K11">
-        <f xml:space="preserve"> D12 / 500000 *100</f>
+        <f t="shared" si="0"/>
         <v>4.0258000000000003</v>
       </c>
       <c r="L11">
-        <f xml:space="preserve"> E12 / 500000 *100</f>
+        <f t="shared" si="0"/>
         <v>4.5084</v>
       </c>
       <c r="M11">
-        <f xml:space="preserve"> F12 / 500000 *100</f>
+        <f t="shared" si="0"/>
         <v>4.7947999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="12">
         <v>1</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="5">
         <v>20129</v>
       </c>
@@ -1029,32 +2146,41 @@
         <v>142124</v>
       </c>
       <c r="E14" s="17">
-        <f t="shared" ref="E14:F14" si="0">SUM(E8:E12)</f>
+        <f t="shared" ref="E14:F14" si="1">SUM(E8:E12)</f>
         <v>144739</v>
       </c>
       <c r="F14" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>145045</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
+      <c r="K19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="21" t="s">
+    <row r="20" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
     </row>
-    <row r="21" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="13">
@@ -1066,107 +2192,172 @@
       <c r="F21" s="15">
         <v>300</v>
       </c>
+      <c r="I21" s="11">
+        <v>1</v>
+      </c>
+      <c r="J21" s="26"/>
+      <c r="K21" s="10">
+        <v>20129</v>
+      </c>
+      <c r="L21" s="6">
+        <v>22542</v>
+      </c>
+      <c r="M21" s="6">
+        <v>23974</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="11">
         <v>5</v>
       </c>
-      <c r="C22" s="24"/>
+      <c r="C22" s="18"/>
       <c r="D22">
-        <f xml:space="preserve"> D8 / D$14 * 100</f>
+        <f t="shared" ref="D22:F26" si="2" xml:space="preserve"> D8 / D$14 * 100</f>
         <v>26.348118544369704</v>
       </c>
       <c r="E22">
-        <f xml:space="preserve"> E8 / E$14 * 100</f>
+        <f t="shared" si="2"/>
         <v>23.152018460815675</v>
       </c>
       <c r="F22">
-        <f xml:space="preserve"> F8 / F$14 * 100</f>
+        <f t="shared" si="2"/>
         <v>21.987659002378575</v>
       </c>
+      <c r="I22" s="5">
+        <v>2</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="5">
+        <v>22576</v>
+      </c>
+      <c r="L22" s="2">
+        <v>25159</v>
+      </c>
+      <c r="M22" s="2">
+        <v>26392</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="21"/>
       <c r="B23" s="5">
         <v>4</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23">
-        <f xml:space="preserve"> D9 / D$14 * 100</f>
+        <f t="shared" si="2"/>
         <v>23.364808195660128</v>
       </c>
       <c r="E23">
-        <f xml:space="preserve"> E9 / E$14 * 100</f>
+        <f t="shared" si="2"/>
         <v>22.948203317695992</v>
       </c>
       <c r="F23">
-        <f xml:space="preserve"> F9 / F$14 * 100</f>
+        <f t="shared" si="2"/>
         <v>22.15450377469061</v>
       </c>
+      <c r="I23" s="5">
+        <v>3</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="5">
+        <v>28765</v>
+      </c>
+      <c r="L23" s="2">
+        <v>30313</v>
+      </c>
+      <c r="M23" s="2">
+        <v>30653</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="21"/>
       <c r="B24" s="5">
         <v>3</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24">
-        <f xml:space="preserve"> D10 / D$14 * 100</f>
+        <f t="shared" si="2"/>
         <v>20.239368438828066</v>
       </c>
       <c r="E24">
-        <f xml:space="preserve"> E10 / E$14 * 100</f>
+        <f t="shared" si="2"/>
         <v>20.943215028430483</v>
       </c>
       <c r="F24">
-        <f xml:space="preserve"> F10 / F$14 * 100</f>
+        <f t="shared" si="2"/>
         <v>21.13344134578924</v>
       </c>
+      <c r="I24" s="5">
+        <v>4</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="5">
+        <v>33207</v>
+      </c>
+      <c r="L24" s="2">
+        <v>33215</v>
+      </c>
+      <c r="M24" s="2">
+        <v>32134</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
+    <row r="25" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
       <c r="B25" s="5">
         <v>2</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25">
-        <f xml:space="preserve"> D11 / D$14 * 100</f>
+        <f t="shared" si="2"/>
         <v>15.884720385015902</v>
       </c>
       <c r="E25">
-        <f xml:space="preserve"> E11 / E$14 * 100</f>
+        <f t="shared" si="2"/>
         <v>17.382322663553015</v>
       </c>
       <c r="F25">
-        <f xml:space="preserve"> F11 / F$14 * 100</f>
+        <f t="shared" si="2"/>
         <v>18.195732358923092</v>
       </c>
+      <c r="I25" s="12">
+        <v>5</v>
+      </c>
+      <c r="J25" s="27"/>
+      <c r="K25" s="5">
+        <v>37447</v>
+      </c>
+      <c r="L25" s="2">
+        <v>33510</v>
+      </c>
+      <c r="M25" s="2">
+        <v>31892</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
+    <row r="26" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="22"/>
       <c r="B26" s="12">
         <v>1</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="19"/>
       <c r="D26">
-        <f xml:space="preserve"> D12 / D$14 * 100</f>
+        <f t="shared" si="2"/>
         <v>14.1629844361262</v>
       </c>
       <c r="E26">
-        <f xml:space="preserve"> E12 / E$14 * 100</f>
+        <f t="shared" si="2"/>
         <v>15.574240529504833</v>
       </c>
       <c r="F26">
-        <f xml:space="preserve"> F12 / F$14 * 100</f>
+        <f t="shared" si="2"/>
         <v>16.528663518218483</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="I7:M11">
-    <sortCondition descending="1" ref="I7"/>
+  <sortState ref="I21:M25">
+    <sortCondition ref="I21"/>
   </sortState>
   <mergeCells count="6">
     <mergeCell ref="A22:A26"/>
@@ -1179,5 +2370,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="150" verticalDpi="150" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>